--- a/biology/Botanique/Helianthemum_syriacum/Helianthemum_syriacum.xlsx
+++ b/biology/Botanique/Helianthemum_syriacum/Helianthemum_syriacum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème de Syrie, Hélianthème à feuilles de lavande
 L’Hélianthème de Syrie ou Hélianthème à feuilles de lavande (Helianthemum syriacum) est une petite plante à fleurs appartenant à la famille des Cistacées et au genre Helianthemum.
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Helianthemum lavandulifolium auct. non Mill., 1768</t>
         </is>
@@ -542,15 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante haute de 10 à 50 cm aux feuilles de couleur grisâtre, enroulées sur les bords, aux fleurs à cinq pétales jaunes rassemblées en courtes grappes[1], [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante haute de 10 à 50 cm aux feuilles de couleur grisâtre, enroulées sur les bords, aux fleurs à cinq pétales jaunes rassemblées en courtes grappes, .
 La floraison a lieu d'avril à juin.
-Écologie et habitat
-C'est une plante des garrigues et des terrains rocheux.
-En France elle est présente dans le Var et les Bouches-du-Rhône.
-Fruit et graines
-Le fruit est une capsule.
 </t>
         </is>
       </c>
@@ -576,12 +587,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante des garrigues et des terrains rocheux.
+En France elle est présente dans le Var et les Bouches-du-Rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helianthemum_syriacum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthemum_syriacum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helianthemum_syriacum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthemum_syriacum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est protégé (liste nationale - Annexes I et II)[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est protégé (liste nationale - Annexes I et II).
 </t>
         </is>
       </c>
